--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Neuropatía.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Neuropatía.xlsx
@@ -485,7 +485,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23.92639151378637</v>
+        <v>23.92639151378636</v>
       </c>
       <c r="B5" t="n">
         <v>20.26834203987917</v>
@@ -518,13 +518,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.627735266507333</v>
+        <v>2.627735266507337</v>
       </c>
       <c r="B8" t="n">
-        <v>1.100994655135649</v>
+        <v>1.100994655135652</v>
       </c>
       <c r="C8" t="n">
-        <v>4.784788835186497</v>
+        <v>4.784788835186495</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.508076256195938</v>
+        <v>3.50807625619594</v>
       </c>
       <c r="B10" t="n">
-        <v>1.731889583907451</v>
+        <v>1.731889583907453</v>
       </c>
       <c r="C10" t="n">
         <v>6.083139451064586</v>
@@ -554,7 +554,7 @@
         <v>12.54114619715573</v>
       </c>
       <c r="B11" t="n">
-        <v>9.689988724252867</v>
+        <v>9.689988724252865</v>
       </c>
       <c r="C11" t="n">
         <v>16.02204986567752</v>
@@ -587,7 +587,7 @@
         <v>10.06703766846214</v>
       </c>
       <c r="B14" t="n">
-        <v>7.441081225481542</v>
+        <v>7.441081225481543</v>
       </c>
       <c r="C14" t="n">
         <v>13.3557167191268</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25.59711091846466</v>
+        <v>25.59711091846465</v>
       </c>
       <c r="B15" t="n">
         <v>21.49988396931548</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19.73658229306503</v>
+        <v>19.73658229306502</v>
       </c>
       <c r="B18" t="n">
         <v>16.77276864761789</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.358429720984901</v>
+        <v>4.358429720984903</v>
       </c>
       <c r="B22" t="n">
         <v>2.352701869976821</v>
@@ -730,7 +730,7 @@
         <v>10.11400200923579</v>
       </c>
       <c r="B27" t="n">
-        <v>7.044527942215897</v>
+        <v>7.044527942215898</v>
       </c>
       <c r="C27" t="n">
         <v>14.05900321477404</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14.14990749861055</v>
+        <v>14.14990749861054</v>
       </c>
       <c r="B28" t="n">
         <v>11.3130426156036</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.186696678773533</v>
+        <v>9.186696678773535</v>
       </c>
       <c r="B31" t="n">
-        <v>6.810186296709741</v>
+        <v>6.810186296709743</v>
       </c>
       <c r="C31" t="n">
         <v>12.05736610324871</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.982184784889533</v>
+        <v>5.982184784889535</v>
       </c>
       <c r="B32" t="n">
-        <v>3.980797082678774</v>
+        <v>3.980797082678775</v>
       </c>
       <c r="C32" t="n">
         <v>8.749472597615306</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20.69387514842693</v>
+        <v>20.69387514842692</v>
       </c>
       <c r="B35" t="n">
         <v>17.01719293582648</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11.69277578579096</v>
+        <v>11.69277578579097</v>
       </c>
       <c r="B38" t="n">
         <v>8.657499190864204</v>
@@ -906,7 +906,7 @@
         <v>18.18977909483369</v>
       </c>
       <c r="B43" t="n">
-        <v>14.75820279435272</v>
+        <v>14.75820279435273</v>
       </c>
       <c r="C43" t="n">
         <v>21.86491846650257</v>
@@ -917,7 +917,7 @@
         <v>10.02007332768848</v>
       </c>
       <c r="B44" t="n">
-        <v>7.837634508747188</v>
+        <v>7.837634508747189</v>
       </c>
       <c r="C44" t="n">
         <v>12.65243022347957</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.351336976434389</v>
+        <v>8.351336976434391</v>
       </c>
       <c r="B46" t="n">
-        <v>6.194415331991587</v>
+        <v>6.194415331991589</v>
       </c>
       <c r="C46" t="n">
         <v>10.95605256440924</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.148808135974585</v>
+        <v>5.148808135974587</v>
       </c>
       <c r="B47" t="n">
-        <v>2.953348870641326</v>
+        <v>2.95334887064133</v>
       </c>
       <c r="C47" t="n">
-        <v>8.154408477384447</v>
+        <v>8.154408477384445</v>
       </c>
     </row>
     <row r="48">
@@ -980,7 +980,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23.97335585456003</v>
+        <v>23.97335585456002</v>
       </c>
       <c r="B50" t="n">
         <v>19.87178875661353</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7.575952323894526</v>
+        <v>7.575952323894527</v>
       </c>
       <c r="B52" t="n">
-        <v>5.598809652678296</v>
+        <v>5.598809652678297</v>
       </c>
       <c r="C52" t="n">
         <v>10.11745512828793</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>25.56712339356502</v>
+        <v>25.56712339356501</v>
       </c>
       <c r="B54" t="n">
         <v>21.48980132661305</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.967191022439714</v>
+        <v>5.967191022439716</v>
       </c>
       <c r="B57" t="n">
         <v>3.975755761327559</v>
       </c>
       <c r="C57" t="n">
-        <v>8.683793571935764</v>
+        <v>8.683793571935766</v>
       </c>
     </row>
     <row r="58">
@@ -1082,7 +1082,7 @@
         <v>11.64581144501731</v>
       </c>
       <c r="B59" t="n">
-        <v>9.054052474129849</v>
+        <v>9.05405247412985</v>
       </c>
       <c r="C59" t="n">
         <v>14.65802022411989</v>
@@ -1093,7 +1093,7 @@
         <v>26.41747685835398</v>
       </c>
       <c r="B60" t="n">
-        <v>22.11061361268242</v>
+        <v>22.11061361268241</v>
       </c>
       <c r="C60" t="n">
         <v>30.83387339363512</v>
@@ -1104,7 +1104,7 @@
         <v>10.90239737080128</v>
       </c>
       <c r="B61" t="n">
-        <v>8.056852190199695</v>
+        <v>8.056852190199697</v>
       </c>
       <c r="C61" t="n">
         <v>14.45703025796627</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.116837557650749</v>
+        <v>5.116837557650753</v>
       </c>
       <c r="B65" t="n">
-        <v>3.354943475258189</v>
+        <v>3.354943475258191</v>
       </c>
       <c r="C65" t="n">
         <v>7.516801007416754</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>22.31763021233156</v>
+        <v>22.31763021233155</v>
       </c>
       <c r="B68" t="n">
         <v>18.64528814852843</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.193789423324045</v>
+        <v>5.193789423324047</v>
       </c>
       <c r="B69" t="n">
         <v>2.968472834694975</v>
       </c>
       <c r="C69" t="n">
-        <v>8.351445554423067</v>
+        <v>8.351445554423066</v>
       </c>
     </row>
     <row r="70">
